--- a/via azure-cli/vm/2-run-login-commands-on-vm-using-ssh.xlsx
+++ b/via azure-cli/vm/2-run-login-commands-on-vm-using-ssh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\23-trainings\1-Opportunity\7-AKS-Cluster-Astreet\via azure-cli\vm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75DD7BB-11F4-4AD9-B5B8-C5DF6FCA4590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37C042C-8DCB-4E57-8687-BBCDC2ED4A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vm-commands" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="77">
   <si>
     <t>Sno</t>
   </si>
@@ -46,72 +46,6 @@
     <t>Command 3</t>
   </si>
   <si>
-    <t>lnx-hpqzdp-0-0.eastus.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-0-1.eastus.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-0-2.eastus.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-0-3.eastus.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-0-4.eastus.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-0-5.eastus.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-0-6.eastus.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-0-7.eastus.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-0-8.eastus.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-0-9.eastus.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-1-0.eastus2.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-1-1.eastus2.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-1-2.eastus2.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-1-3.eastus2.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-1-4.eastus2.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-1-5.eastus2.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-1-6.eastus2.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-1-7.eastus2.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-1-8.eastus2.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-1-9.eastus2.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-2-0.japaneast.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-2-3.japaneast.cloudapp.azure.com</t>
-  </si>
-  <si>
     <t>tuser</t>
   </si>
   <si>
@@ -142,30 +76,6 @@
     <t>SSH Command 3</t>
   </si>
   <si>
-    <t>lnx-hpqzdp-2-1.japaneast.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-2-2.japaneast.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-2-4.japaneast.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-2-5.japaneast.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-2-6.japaneast.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-2-7.japaneast.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-2-8.japaneast.cloudapp.azure.com</t>
-  </si>
-  <si>
-    <t>lnx-hpqzdp-2-9.japaneast.cloudapp.azure.com</t>
-  </si>
-  <si>
     <t>Instructions</t>
   </si>
   <si>
@@ -175,9 +85,6 @@
     <t>RG Name</t>
   </si>
   <si>
-    <t>rg-aks-5</t>
-  </si>
-  <si>
     <t>rg-aks-1</t>
   </si>
   <si>
@@ -187,39 +94,12 @@
     <t>aks-1</t>
   </si>
   <si>
-    <t>aks-3</t>
-  </si>
-  <si>
     <t>Pay as you go - 10</t>
   </si>
   <si>
     <t>Location</t>
   </si>
   <si>
-    <t>eastus</t>
-  </si>
-  <si>
-    <t>eastus2</t>
-  </si>
-  <si>
-    <t>japaneast</t>
-  </si>
-  <si>
-    <t>westus</t>
-  </si>
-  <si>
-    <t>northeurope</t>
-  </si>
-  <si>
-    <t>uksouth</t>
-  </si>
-  <si>
-    <t>rg-aks-3</t>
-  </si>
-  <si>
-    <t>rg-aks-4</t>
-  </si>
-  <si>
     <t>Pay as you go - 11</t>
   </si>
   <si>
@@ -250,12 +130,6 @@
     <t>d7c166d0-9efb-412b-bdbc-0fa80d587141</t>
   </si>
   <si>
-    <t>aks-4</t>
-  </si>
-  <si>
-    <t>aks-5</t>
-  </si>
-  <si>
     <t>SSH Command 4</t>
   </si>
   <si>
@@ -269,6 +143,120 @@
   </si>
   <si>
     <t>kubectl get nodes -o wide</t>
+  </si>
+  <si>
+    <t>lnx-plqz-htbyo-0-0.eastus.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-plqz-htbyo-0-1.eastus.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-plqz-htbyo-0-2.eastus.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-plqz-htbyo-1-0.eastus2.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-plqz-htbyo-1-1.eastus2.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-plqz-htbyo-1-2.eastus2.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-plqz-htbyo-2-0.japaneast.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-plqz-htbyo-2-1.japaneast.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-plqz-htbyo-2-2.japaneast.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-mkqla-rby-0-0.eastus.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-mkqla-rby-0-1.eastus.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-mkqla-rby-0-2.eastus.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-mkqla-rby-1-0.eastus2.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-mkqlp-rby-1-1.eastus2.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-mkqlp-rby-1-2.eastus2.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-mkqlp-rby-2-0.japaneast.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-mkqlp-rby-2-1.japaneast.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-mkqlp-rby-2-2.japaneast.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-plqz-kqp59634-0-0.eastus.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-plqz-kqp59634-0-1.eastus.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-plqz-kqp59634-0-2.eastus.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-plqz-kqp59634-1-0.eastus2.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-plqz-kqp59634-1-1.eastus2.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-plqz-kqp59634-1-2.eastus2.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-plqz-kqp59634-2-0.japaneast.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-plqz-kqp59634-2-1.japaneast.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>lnx-plqz-kqp59634-2-2.japaneast.cloudapp.azure.com</t>
+  </si>
+  <si>
+    <t>77bab858-0e39-471c-a68a-eaedd73b7db6</t>
+  </si>
+  <si>
+    <t>c976047d-c038-48e7-ab6d-4751c3a26c37</t>
+  </si>
+  <si>
+    <t>8a11c749-78a2-4ac0-9b0e-8dd5b010146a</t>
+  </si>
+  <si>
+    <t>4bdd6065-f417-4cb6-b489-7920684e7836</t>
+  </si>
+  <si>
+    <t>Pay as you go - 21</t>
+  </si>
+  <si>
+    <t>Pay as you go - 22</t>
+  </si>
+  <si>
+    <t>Pay as you go - 23</t>
+  </si>
+  <si>
+    <t>Pay as you go - 26</t>
+  </si>
+  <si>
+    <t>East US</t>
+  </si>
+  <si>
+    <t>East US 2</t>
+  </si>
+  <si>
+    <t>Japan East</t>
   </si>
 </sst>
 </file>
@@ -611,11 +599,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D35" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -636,17 +622,17 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -663,34 +649,34 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -698,17 +684,17 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E6" t="str">
         <f>_xlfn.CONCAT("ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@",B6," ", D6)</f>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-0-0.eastus.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-plqz-htbyo-0-0.eastus.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F6" t="str">
         <f>'aks details'!C2</f>
@@ -720,7 +706,7 @@
       </c>
       <c r="H6" t="str">
         <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B6," ", G6)</f>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-0-0.eastus.cloudapp.azure.com az account set --subscription '6378784e-0a8a-4197-a15d-afc70adb2952'</v>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-plqz-htbyo-0-0.eastus.cloudapp.azure.com az account set --subscription '6378784e-0a8a-4197-a15d-afc70adb2952'</v>
       </c>
       <c r="I6" t="str">
         <f>'aks details'!E2</f>
@@ -736,14 +722,14 @@
       </c>
       <c r="L6" t="str">
         <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B6," ", K6)</f>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-0-0.eastus.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-htbyo-0-0.eastus.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N6" t="str">
         <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B6," ", M6)</f>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-0-0.eastus.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-htbyo-0-0.eastus.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -751,29 +737,29 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" ref="E7:E35" si="0">_xlfn.CONCAT("ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@",B7," ", D7)</f>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-0-1.eastus.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <f t="shared" ref="E7:E32" si="0">_xlfn.CONCAT("ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@",B7," ", D7)</f>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-plqz-htbyo-0-1.eastus.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F7" t="str">
         <f>'aks details'!C3</f>
         <v>6378784e-0a8a-4197-a15d-afc70adb2952</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" ref="G7:G35" si="1">_xlfn.CONCAT("az account set --subscription ", "'", F7,"'")</f>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F7,"'")</f>
         <v>az account set --subscription '6378784e-0a8a-4197-a15d-afc70adb2952'</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" ref="H7:H35" si="2">_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B7," ", G7)</f>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-0-1.eastus.cloudapp.azure.com az account set --subscription '6378784e-0a8a-4197-a15d-afc70adb2952'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B7," ", G7)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-plqz-htbyo-0-1.eastus.cloudapp.azure.com az account set --subscription '6378784e-0a8a-4197-a15d-afc70adb2952'</v>
       </c>
       <c r="I7" t="str">
         <f>'aks details'!E3</f>
@@ -784,19 +770,19 @@
         <v>aks-1</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" ref="K7:K35" si="3">_xlfn.CONCAT("az aks get-credentials --resource-group ", I7," --name ", J7, "  --overwrite")</f>
+        <f t="shared" ref="K7:K32" si="1">_xlfn.CONCAT("az aks get-credentials --resource-group ", I7," --name ", J7, "  --overwrite")</f>
         <v>az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" ref="L7:L35" si="4">_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B7," ", K7)</f>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-0-1.eastus.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B7," ", K7)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-htbyo-0-1.eastus.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" ref="N7:N35" si="5">_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B7," ", M7)</f>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-0-1.eastus.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B7," ", M7)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-htbyo-0-1.eastus.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -804,29 +790,29 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-0-2.eastus.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-plqz-htbyo-0-2.eastus.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F8" t="str">
         <f>'aks details'!C4</f>
         <v>6378784e-0a8a-4197-a15d-afc70adb2952</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F8,"'")</f>
         <v>az account set --subscription '6378784e-0a8a-4197-a15d-afc70adb2952'</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-0-2.eastus.cloudapp.azure.com az account set --subscription '6378784e-0a8a-4197-a15d-afc70adb2952'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B8," ", G8)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-plqz-htbyo-0-2.eastus.cloudapp.azure.com az account set --subscription '6378784e-0a8a-4197-a15d-afc70adb2952'</v>
       </c>
       <c r="I8" t="str">
         <f>'aks details'!E4</f>
@@ -837,19 +823,19 @@
         <v>aks-2</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-0-2.eastus.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B8," ", K8)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-htbyo-0-2.eastus.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-0-2.eastus.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B8," ", M8)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-htbyo-0-2.eastus.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -857,52 +843,52 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-0-3.eastus.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-plqz-htbyo-1-0.eastus2.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F9" t="str">
         <f>'aks details'!C5</f>
-        <v>6378784e-0a8a-4197-a15d-afc70adb2952</v>
+        <v>18c950cd-7d1d-4834-a27b-ce656074eea1</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription '6378784e-0a8a-4197-a15d-afc70adb2952'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F9,"'")</f>
+        <v>az account set --subscription '18c950cd-7d1d-4834-a27b-ce656074eea1'</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-0-3.eastus.cloudapp.azure.com az account set --subscription '6378784e-0a8a-4197-a15d-afc70adb2952'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B9," ", G9)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-plqz-htbyo-1-0.eastus2.cloudapp.azure.com az account set --subscription '18c950cd-7d1d-4834-a27b-ce656074eea1'</v>
       </c>
       <c r="I9" t="str">
         <f>'aks details'!E5</f>
-        <v>rg-aks-3</v>
+        <v>rg-aks-0</v>
       </c>
       <c r="J9" t="str">
         <f>'aks details'!F5</f>
-        <v>aks-3</v>
+        <v>aks-0</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="3"/>
-        <v>az aks get-credentials --resource-group rg-aks-3 --name aks-3  --overwrite</v>
+        <f t="shared" si="1"/>
+        <v>az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-0-3.eastus.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-3 --name aks-3  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B9," ", K9)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-htbyo-1-0.eastus2.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-0-3.eastus.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B9," ", M9)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-htbyo-1-0.eastus2.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -910,52 +896,52 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-0-4.eastus.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-plqz-htbyo-1-1.eastus2.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F10" t="str">
         <f>'aks details'!C6</f>
-        <v>6378784e-0a8a-4197-a15d-afc70adb2952</v>
+        <v>18c950cd-7d1d-4834-a27b-ce656074eea1</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription '6378784e-0a8a-4197-a15d-afc70adb2952'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F10,"'")</f>
+        <v>az account set --subscription '18c950cd-7d1d-4834-a27b-ce656074eea1'</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-0-4.eastus.cloudapp.azure.com az account set --subscription '6378784e-0a8a-4197-a15d-afc70adb2952'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B10," ", G10)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-plqz-htbyo-1-1.eastus2.cloudapp.azure.com az account set --subscription '18c950cd-7d1d-4834-a27b-ce656074eea1'</v>
       </c>
       <c r="I10" t="str">
         <f>'aks details'!E6</f>
-        <v>rg-aks-4</v>
+        <v>rg-aks-1</v>
       </c>
       <c r="J10" t="str">
         <f>'aks details'!F6</f>
-        <v>aks-4</v>
+        <v>aks-1</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="3"/>
-        <v>az aks get-credentials --resource-group rg-aks-4 --name aks-4  --overwrite</v>
+        <f t="shared" si="1"/>
+        <v>az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-0-4.eastus.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-4 --name aks-4  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B10," ", K10)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-htbyo-1-1.eastus2.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-0-4.eastus.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B10," ", M10)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-htbyo-1-1.eastus2.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -963,52 +949,52 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-0-5.eastus.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-plqz-htbyo-1-2.eastus2.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F11" t="str">
         <f>'aks details'!C7</f>
-        <v>6378784e-0a8a-4197-a15d-afc70adb2952</v>
+        <v>18c950cd-7d1d-4834-a27b-ce656074eea1</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription '6378784e-0a8a-4197-a15d-afc70adb2952'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F11,"'")</f>
+        <v>az account set --subscription '18c950cd-7d1d-4834-a27b-ce656074eea1'</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-0-5.eastus.cloudapp.azure.com az account set --subscription '6378784e-0a8a-4197-a15d-afc70adb2952'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B11," ", G11)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-plqz-htbyo-1-2.eastus2.cloudapp.azure.com az account set --subscription '18c950cd-7d1d-4834-a27b-ce656074eea1'</v>
       </c>
       <c r="I11" t="str">
         <f>'aks details'!E7</f>
-        <v>rg-aks-5</v>
+        <v>rg-aks-2</v>
       </c>
       <c r="J11" t="str">
         <f>'aks details'!F7</f>
-        <v>aks-5</v>
+        <v>aks-2</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="3"/>
-        <v>az aks get-credentials --resource-group rg-aks-5 --name aks-5  --overwrite</v>
+        <f t="shared" si="1"/>
+        <v>az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-0-5.eastus.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-5 --name aks-5  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B11," ", K11)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-htbyo-1-2.eastus2.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-0-5.eastus.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B11," ", M11)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-htbyo-1-2.eastus2.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1016,29 +1002,29 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-0-6.eastus.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-plqz-htbyo-2-0.japaneast.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F12" t="str">
         <f>'aks details'!C8</f>
-        <v>18c950cd-7d1d-4834-a27b-ce656074eea1</v>
+        <v>81b49d19-6ecd-4a24-96f4-95ec17aa6799</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription '18c950cd-7d1d-4834-a27b-ce656074eea1'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F12,"'")</f>
+        <v>az account set --subscription '81b49d19-6ecd-4a24-96f4-95ec17aa6799'</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-0-6.eastus.cloudapp.azure.com az account set --subscription '18c950cd-7d1d-4834-a27b-ce656074eea1'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B12," ", G12)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-plqz-htbyo-2-0.japaneast.cloudapp.azure.com az account set --subscription '81b49d19-6ecd-4a24-96f4-95ec17aa6799'</v>
       </c>
       <c r="I12" t="str">
         <f>'aks details'!E8</f>
@@ -1049,19 +1035,19 @@
         <v>aks-0</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-0-6.eastus.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B12," ", K12)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-htbyo-2-0.japaneast.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
       </c>
       <c r="M12" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-0-6.eastus.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B12," ", M12)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-htbyo-2-0.japaneast.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1069,29 +1055,29 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-0-7.eastus.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-plqz-htbyo-2-1.japaneast.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F13" t="str">
         <f>'aks details'!C9</f>
-        <v>18c950cd-7d1d-4834-a27b-ce656074eea1</v>
+        <v>81b49d19-6ecd-4a24-96f4-95ec17aa6799</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription '18c950cd-7d1d-4834-a27b-ce656074eea1'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F13,"'")</f>
+        <v>az account set --subscription '81b49d19-6ecd-4a24-96f4-95ec17aa6799'</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-0-7.eastus.cloudapp.azure.com az account set --subscription '18c950cd-7d1d-4834-a27b-ce656074eea1'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B13," ", G13)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-plqz-htbyo-2-1.japaneast.cloudapp.azure.com az account set --subscription '81b49d19-6ecd-4a24-96f4-95ec17aa6799'</v>
       </c>
       <c r="I13" t="str">
         <f>'aks details'!E9</f>
@@ -1102,19 +1088,19 @@
         <v>aks-1</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-0-7.eastus.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B13," ", K13)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-htbyo-2-1.japaneast.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-0-7.eastus.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B13," ", M13)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-htbyo-2-1.japaneast.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1122,29 +1108,29 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-0-8.eastus.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-plqz-htbyo-2-2.japaneast.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F14" t="str">
         <f>'aks details'!C10</f>
-        <v>18c950cd-7d1d-4834-a27b-ce656074eea1</v>
+        <v>81b49d19-6ecd-4a24-96f4-95ec17aa6799</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription '18c950cd-7d1d-4834-a27b-ce656074eea1'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F14,"'")</f>
+        <v>az account set --subscription '81b49d19-6ecd-4a24-96f4-95ec17aa6799'</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-0-8.eastus.cloudapp.azure.com az account set --subscription '18c950cd-7d1d-4834-a27b-ce656074eea1'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B14," ", G14)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-plqz-htbyo-2-2.japaneast.cloudapp.azure.com az account set --subscription '81b49d19-6ecd-4a24-96f4-95ec17aa6799'</v>
       </c>
       <c r="I14" t="str">
         <f>'aks details'!E10</f>
@@ -1155,19 +1141,19 @@
         <v>aks-2</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-0-8.eastus.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B14," ", K14)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-htbyo-2-2.japaneast.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-0-8.eastus.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B14," ", M14)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-htbyo-2-2.japaneast.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1175,52 +1161,52 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-0-9.eastus.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-mkqla-rby-0-0.eastus.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F15" t="str">
         <f>'aks details'!C11</f>
-        <v>18c950cd-7d1d-4834-a27b-ce656074eea1</v>
+        <v>d7c166d0-9efb-412b-bdbc-0fa80d587141</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription '18c950cd-7d1d-4834-a27b-ce656074eea1'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F15,"'")</f>
+        <v>az account set --subscription 'd7c166d0-9efb-412b-bdbc-0fa80d587141'</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-0-9.eastus.cloudapp.azure.com az account set --subscription '18c950cd-7d1d-4834-a27b-ce656074eea1'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B15," ", G15)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-mkqla-rby-0-0.eastus.cloudapp.azure.com az account set --subscription 'd7c166d0-9efb-412b-bdbc-0fa80d587141'</v>
       </c>
       <c r="I15" t="str">
         <f>'aks details'!E11</f>
-        <v>rg-aks-3</v>
+        <v>rg-aks-0</v>
       </c>
       <c r="J15" t="str">
         <f>'aks details'!F11</f>
-        <v>aks-3</v>
+        <v>aks-0</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="3"/>
-        <v>az aks get-credentials --resource-group rg-aks-3 --name aks-3  --overwrite</v>
+        <f t="shared" si="1"/>
+        <v>az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-0-9.eastus.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-3 --name aks-3  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B15," ", K15)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-mkqla-rby-0-0.eastus.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
       </c>
       <c r="M15" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-0-9.eastus.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B15," ", M15)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-mkqla-rby-0-0.eastus.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1228,52 +1214,52 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-1-0.eastus2.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-mkqla-rby-0-1.eastus.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F16" t="str">
         <f>'aks details'!C12</f>
-        <v>18c950cd-7d1d-4834-a27b-ce656074eea1</v>
+        <v>d7c166d0-9efb-412b-bdbc-0fa80d587141</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription '18c950cd-7d1d-4834-a27b-ce656074eea1'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F16,"'")</f>
+        <v>az account set --subscription 'd7c166d0-9efb-412b-bdbc-0fa80d587141'</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-1-0.eastus2.cloudapp.azure.com az account set --subscription '18c950cd-7d1d-4834-a27b-ce656074eea1'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B16," ", G16)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-mkqla-rby-0-1.eastus.cloudapp.azure.com az account set --subscription 'd7c166d0-9efb-412b-bdbc-0fa80d587141'</v>
       </c>
       <c r="I16" t="str">
         <f>'aks details'!E12</f>
-        <v>rg-aks-4</v>
+        <v>rg-aks-1</v>
       </c>
       <c r="J16" t="str">
         <f>'aks details'!F12</f>
-        <v>aks-4</v>
+        <v>aks-1</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="3"/>
-        <v>az aks get-credentials --resource-group rg-aks-4 --name aks-4  --overwrite</v>
+        <f t="shared" si="1"/>
+        <v>az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-1-0.eastus2.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-4 --name aks-4  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B16," ", K16)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-mkqla-rby-0-1.eastus.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
       </c>
       <c r="M16" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-1-0.eastus2.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B16," ", M16)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-mkqla-rby-0-1.eastus.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1281,52 +1267,52 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-1-1.eastus2.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-mkqla-rby-0-2.eastus.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F17" t="str">
         <f>'aks details'!C13</f>
-        <v>18c950cd-7d1d-4834-a27b-ce656074eea1</v>
+        <v>d7c166d0-9efb-412b-bdbc-0fa80d587141</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription '18c950cd-7d1d-4834-a27b-ce656074eea1'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F17,"'")</f>
+        <v>az account set --subscription 'd7c166d0-9efb-412b-bdbc-0fa80d587141'</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-1-1.eastus2.cloudapp.azure.com az account set --subscription '18c950cd-7d1d-4834-a27b-ce656074eea1'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B17," ", G17)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-mkqla-rby-0-2.eastus.cloudapp.azure.com az account set --subscription 'd7c166d0-9efb-412b-bdbc-0fa80d587141'</v>
       </c>
       <c r="I17" t="str">
         <f>'aks details'!E13</f>
-        <v>rg-aks-5</v>
+        <v>rg-aks-2</v>
       </c>
       <c r="J17" t="str">
         <f>'aks details'!F13</f>
-        <v>aks-5</v>
+        <v>aks-2</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="3"/>
-        <v>az aks get-credentials --resource-group rg-aks-5 --name aks-5  --overwrite</v>
+        <f t="shared" si="1"/>
+        <v>az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-1-1.eastus2.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-5 --name aks-5  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B17," ", K17)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-mkqla-rby-0-2.eastus.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
       </c>
       <c r="M17" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-1-1.eastus2.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B17," ", M17)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-mkqla-rby-0-2.eastus.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1334,29 +1320,29 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-1-2.eastus2.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-mkqla-rby-1-0.eastus2.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F18" t="str">
         <f>'aks details'!C14</f>
-        <v>81b49d19-6ecd-4a24-96f4-95ec17aa6799</v>
+        <v>f674fa1e-9377-49a4-8ef7-a3049a97702e</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription '81b49d19-6ecd-4a24-96f4-95ec17aa6799'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F18,"'")</f>
+        <v>az account set --subscription 'f674fa1e-9377-49a4-8ef7-a3049a97702e'</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-1-2.eastus2.cloudapp.azure.com az account set --subscription '81b49d19-6ecd-4a24-96f4-95ec17aa6799'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B18," ", G18)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-mkqla-rby-1-0.eastus2.cloudapp.azure.com az account set --subscription 'f674fa1e-9377-49a4-8ef7-a3049a97702e'</v>
       </c>
       <c r="I18" t="str">
         <f>'aks details'!E14</f>
@@ -1367,19 +1353,19 @@
         <v>aks-0</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-1-2.eastus2.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B18," ", K18)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-mkqla-rby-1-0.eastus2.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
       </c>
       <c r="M18" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-1-2.eastus2.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B18," ", M18)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-mkqla-rby-1-0.eastus2.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1387,29 +1373,29 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-1-3.eastus2.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-mkqlp-rby-1-1.eastus2.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F19" t="str">
         <f>'aks details'!C15</f>
-        <v>81b49d19-6ecd-4a24-96f4-95ec17aa6799</v>
+        <v>f674fa1e-9377-49a4-8ef7-a3049a97702e</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription '81b49d19-6ecd-4a24-96f4-95ec17aa6799'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F19,"'")</f>
+        <v>az account set --subscription 'f674fa1e-9377-49a4-8ef7-a3049a97702e'</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-1-3.eastus2.cloudapp.azure.com az account set --subscription '81b49d19-6ecd-4a24-96f4-95ec17aa6799'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B19," ", G19)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-mkqlp-rby-1-1.eastus2.cloudapp.azure.com az account set --subscription 'f674fa1e-9377-49a4-8ef7-a3049a97702e'</v>
       </c>
       <c r="I19" t="str">
         <f>'aks details'!E15</f>
@@ -1420,19 +1406,19 @@
         <v>aks-1</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-1-3.eastus2.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B19," ", K19)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-mkqlp-rby-1-1.eastus2.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
       </c>
       <c r="M19" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-1-3.eastus2.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B19," ", M19)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-mkqlp-rby-1-1.eastus2.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1440,29 +1426,29 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-1-4.eastus2.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-mkqlp-rby-1-2.eastus2.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F20" t="str">
         <f>'aks details'!C16</f>
-        <v>81b49d19-6ecd-4a24-96f4-95ec17aa6799</v>
+        <v>f674fa1e-9377-49a4-8ef7-a3049a97702e</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription '81b49d19-6ecd-4a24-96f4-95ec17aa6799'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F20,"'")</f>
+        <v>az account set --subscription 'f674fa1e-9377-49a4-8ef7-a3049a97702e'</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-1-4.eastus2.cloudapp.azure.com az account set --subscription '81b49d19-6ecd-4a24-96f4-95ec17aa6799'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B20," ", G20)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-mkqlp-rby-1-2.eastus2.cloudapp.azure.com az account set --subscription 'f674fa1e-9377-49a4-8ef7-a3049a97702e'</v>
       </c>
       <c r="I20" t="str">
         <f>'aks details'!E16</f>
@@ -1473,19 +1459,19 @@
         <v>aks-2</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-1-4.eastus2.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B20," ", K20)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-mkqlp-rby-1-2.eastus2.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
       </c>
       <c r="M20" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-1-4.eastus2.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B20," ", M20)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-mkqlp-rby-1-2.eastus2.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1493,52 +1479,52 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-1-5.eastus2.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-mkqlp-rby-2-0.japaneast.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F21" t="str">
         <f>'aks details'!C17</f>
-        <v>81b49d19-6ecd-4a24-96f4-95ec17aa6799</v>
+        <v>77bab858-0e39-471c-a68a-eaedd73b7db6</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription '81b49d19-6ecd-4a24-96f4-95ec17aa6799'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F21,"'")</f>
+        <v>az account set --subscription '77bab858-0e39-471c-a68a-eaedd73b7db6'</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-1-5.eastus2.cloudapp.azure.com az account set --subscription '81b49d19-6ecd-4a24-96f4-95ec17aa6799'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B21," ", G21)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-mkqlp-rby-2-0.japaneast.cloudapp.azure.com az account set --subscription '77bab858-0e39-471c-a68a-eaedd73b7db6'</v>
       </c>
       <c r="I21" t="str">
         <f>'aks details'!E17</f>
-        <v>rg-aks-3</v>
+        <v>rg-aks-0</v>
       </c>
       <c r="J21" t="str">
         <f>'aks details'!F17</f>
-        <v>aks-3</v>
+        <v>aks-0</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="3"/>
-        <v>az aks get-credentials --resource-group rg-aks-3 --name aks-3  --overwrite</v>
+        <f t="shared" si="1"/>
+        <v>az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-1-5.eastus2.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-3 --name aks-3  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B21," ", K21)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-mkqlp-rby-2-0.japaneast.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
       </c>
       <c r="M21" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-1-5.eastus2.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B21," ", M21)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-mkqlp-rby-2-0.japaneast.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1546,52 +1532,52 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-1-6.eastus2.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-mkqlp-rby-2-1.japaneast.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F22" t="str">
         <f>'aks details'!C18</f>
-        <v>81b49d19-6ecd-4a24-96f4-95ec17aa6799</v>
+        <v>77bab858-0e39-471c-a68a-eaedd73b7db6</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription '81b49d19-6ecd-4a24-96f4-95ec17aa6799'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F22,"'")</f>
+        <v>az account set --subscription '77bab858-0e39-471c-a68a-eaedd73b7db6'</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-1-6.eastus2.cloudapp.azure.com az account set --subscription '81b49d19-6ecd-4a24-96f4-95ec17aa6799'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B22," ", G22)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-mkqlp-rby-2-1.japaneast.cloudapp.azure.com az account set --subscription '77bab858-0e39-471c-a68a-eaedd73b7db6'</v>
       </c>
       <c r="I22" t="str">
         <f>'aks details'!E18</f>
-        <v>rg-aks-4</v>
+        <v>rg-aks-1</v>
       </c>
       <c r="J22" t="str">
         <f>'aks details'!F18</f>
-        <v>aks-4</v>
+        <v>aks-1</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="3"/>
-        <v>az aks get-credentials --resource-group rg-aks-4 --name aks-4  --overwrite</v>
+        <f t="shared" si="1"/>
+        <v>az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-1-6.eastus2.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-4 --name aks-4  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B22," ", K22)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-mkqlp-rby-2-1.japaneast.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
       </c>
       <c r="M22" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-1-6.eastus2.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B22," ", M22)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-mkqlp-rby-2-1.japaneast.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -1599,52 +1585,52 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-1-7.eastus2.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-mkqlp-rby-2-2.japaneast.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F23" t="str">
         <f>'aks details'!C19</f>
-        <v>81b49d19-6ecd-4a24-96f4-95ec17aa6799</v>
+        <v>77bab858-0e39-471c-a68a-eaedd73b7db6</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription '81b49d19-6ecd-4a24-96f4-95ec17aa6799'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F23,"'")</f>
+        <v>az account set --subscription '77bab858-0e39-471c-a68a-eaedd73b7db6'</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-1-7.eastus2.cloudapp.azure.com az account set --subscription '81b49d19-6ecd-4a24-96f4-95ec17aa6799'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B23," ", G23)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-mkqlp-rby-2-2.japaneast.cloudapp.azure.com az account set --subscription '77bab858-0e39-471c-a68a-eaedd73b7db6'</v>
       </c>
       <c r="I23" t="str">
         <f>'aks details'!E19</f>
-        <v>rg-aks-5</v>
+        <v>rg-aks-2</v>
       </c>
       <c r="J23" t="str">
         <f>'aks details'!F19</f>
-        <v>aks-5</v>
+        <v>aks-2</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="3"/>
-        <v>az aks get-credentials --resource-group rg-aks-5 --name aks-5  --overwrite</v>
+        <f t="shared" si="1"/>
+        <v>az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-1-7.eastus2.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-5 --name aks-5  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B23," ", K23)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-mkqlp-rby-2-2.japaneast.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
       </c>
       <c r="M23" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-1-7.eastus2.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B23," ", M23)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-mkqlp-rby-2-2.japaneast.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -1652,29 +1638,29 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-1-8.eastus2.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-plqz-kqp59634-0-0.eastus.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F24" t="str">
         <f>'aks details'!C20</f>
-        <v>d7c166d0-9efb-412b-bdbc-0fa80d587141</v>
+        <v>c976047d-c038-48e7-ab6d-4751c3a26c37</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription 'd7c166d0-9efb-412b-bdbc-0fa80d587141'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F24,"'")</f>
+        <v>az account set --subscription 'c976047d-c038-48e7-ab6d-4751c3a26c37'</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-1-8.eastus2.cloudapp.azure.com az account set --subscription 'd7c166d0-9efb-412b-bdbc-0fa80d587141'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B24," ", G24)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-plqz-kqp59634-0-0.eastus.cloudapp.azure.com az account set --subscription 'c976047d-c038-48e7-ab6d-4751c3a26c37'</v>
       </c>
       <c r="I24" t="str">
         <f>'aks details'!E20</f>
@@ -1685,19 +1671,19 @@
         <v>aks-0</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-1-8.eastus2.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B24," ", K24)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-kqp59634-0-0.eastus.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
       </c>
       <c r="M24" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-1-8.eastus2.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B24," ", M24)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-kqp59634-0-0.eastus.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1705,29 +1691,29 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-1-9.eastus2.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-plqz-kqp59634-0-1.eastus.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F25" t="str">
         <f>'aks details'!C21</f>
-        <v>d7c166d0-9efb-412b-bdbc-0fa80d587141</v>
+        <v>c976047d-c038-48e7-ab6d-4751c3a26c37</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription 'd7c166d0-9efb-412b-bdbc-0fa80d587141'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F25,"'")</f>
+        <v>az account set --subscription 'c976047d-c038-48e7-ab6d-4751c3a26c37'</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-1-9.eastus2.cloudapp.azure.com az account set --subscription 'd7c166d0-9efb-412b-bdbc-0fa80d587141'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B25," ", G25)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-plqz-kqp59634-0-1.eastus.cloudapp.azure.com az account set --subscription 'c976047d-c038-48e7-ab6d-4751c3a26c37'</v>
       </c>
       <c r="I25" t="str">
         <f>'aks details'!E21</f>
@@ -1738,19 +1724,19 @@
         <v>aks-1</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-1-9.eastus2.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B25," ", K25)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-kqp59634-0-1.eastus.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
       </c>
       <c r="M25" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-1-9.eastus2.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B25," ", M25)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-kqp59634-0-1.eastus.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -1758,29 +1744,29 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-2-0.japaneast.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-plqz-kqp59634-0-2.eastus.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F26" t="str">
         <f>'aks details'!C22</f>
-        <v>d7c166d0-9efb-412b-bdbc-0fa80d587141</v>
+        <v>c976047d-c038-48e7-ab6d-4751c3a26c37</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription 'd7c166d0-9efb-412b-bdbc-0fa80d587141'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F26,"'")</f>
+        <v>az account set --subscription 'c976047d-c038-48e7-ab6d-4751c3a26c37'</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-2-0.japaneast.cloudapp.azure.com az account set --subscription 'd7c166d0-9efb-412b-bdbc-0fa80d587141'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B26," ", G26)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-plqz-kqp59634-0-2.eastus.cloudapp.azure.com az account set --subscription 'c976047d-c038-48e7-ab6d-4751c3a26c37'</v>
       </c>
       <c r="I26" t="str">
         <f>'aks details'!E22</f>
@@ -1791,19 +1777,19 @@
         <v>aks-2</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-2-0.japaneast.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B26," ", K26)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-kqp59634-0-2.eastus.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
       </c>
       <c r="M26" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-2-0.japaneast.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B26," ", M26)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-kqp59634-0-2.eastus.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -1811,52 +1797,52 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-2-1.japaneast.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-plqz-kqp59634-1-0.eastus2.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F27" t="str">
         <f>'aks details'!C23</f>
-        <v>d7c166d0-9efb-412b-bdbc-0fa80d587141</v>
+        <v>8a11c749-78a2-4ac0-9b0e-8dd5b010146a</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription 'd7c166d0-9efb-412b-bdbc-0fa80d587141'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F27,"'")</f>
+        <v>az account set --subscription '8a11c749-78a2-4ac0-9b0e-8dd5b010146a'</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-2-1.japaneast.cloudapp.azure.com az account set --subscription 'd7c166d0-9efb-412b-bdbc-0fa80d587141'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B27," ", G27)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-plqz-kqp59634-1-0.eastus2.cloudapp.azure.com az account set --subscription '8a11c749-78a2-4ac0-9b0e-8dd5b010146a'</v>
       </c>
       <c r="I27" t="str">
         <f>'aks details'!E23</f>
-        <v>rg-aks-3</v>
+        <v>rg-aks-0</v>
       </c>
       <c r="J27" t="str">
         <f>'aks details'!F23</f>
-        <v>aks-3</v>
+        <v>aks-0</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="3"/>
-        <v>az aks get-credentials --resource-group rg-aks-3 --name aks-3  --overwrite</v>
+        <f t="shared" si="1"/>
+        <v>az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-2-1.japaneast.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-3 --name aks-3  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B27," ", K27)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-kqp59634-1-0.eastus2.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
       </c>
       <c r="M27" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-2-1.japaneast.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B27," ", M27)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-kqp59634-1-0.eastus2.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -1864,52 +1850,52 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-2-2.japaneast.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-plqz-kqp59634-1-1.eastus2.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F28" t="str">
         <f>'aks details'!C24</f>
-        <v>d7c166d0-9efb-412b-bdbc-0fa80d587141</v>
+        <v>8a11c749-78a2-4ac0-9b0e-8dd5b010146a</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription 'd7c166d0-9efb-412b-bdbc-0fa80d587141'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F28,"'")</f>
+        <v>az account set --subscription '8a11c749-78a2-4ac0-9b0e-8dd5b010146a'</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-2-2.japaneast.cloudapp.azure.com az account set --subscription 'd7c166d0-9efb-412b-bdbc-0fa80d587141'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B28," ", G28)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-plqz-kqp59634-1-1.eastus2.cloudapp.azure.com az account set --subscription '8a11c749-78a2-4ac0-9b0e-8dd5b010146a'</v>
       </c>
       <c r="I28" t="str">
         <f>'aks details'!E24</f>
-        <v>rg-aks-4</v>
+        <v>rg-aks-1</v>
       </c>
       <c r="J28" t="str">
         <f>'aks details'!F24</f>
-        <v>aks-4</v>
+        <v>aks-1</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="3"/>
-        <v>az aks get-credentials --resource-group rg-aks-4 --name aks-4  --overwrite</v>
+        <f t="shared" si="1"/>
+        <v>az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-2-2.japaneast.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-4 --name aks-4  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B28," ", K28)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-kqp59634-1-1.eastus2.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
       </c>
       <c r="M28" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-2-2.japaneast.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B28," ", M28)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-kqp59634-1-1.eastus2.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -1917,52 +1903,52 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-2-3.japaneast.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-plqz-kqp59634-1-2.eastus2.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F29" t="str">
         <f>'aks details'!C25</f>
-        <v>d7c166d0-9efb-412b-bdbc-0fa80d587141</v>
+        <v>8a11c749-78a2-4ac0-9b0e-8dd5b010146a</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription 'd7c166d0-9efb-412b-bdbc-0fa80d587141'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F29,"'")</f>
+        <v>az account set --subscription '8a11c749-78a2-4ac0-9b0e-8dd5b010146a'</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-2-3.japaneast.cloudapp.azure.com az account set --subscription 'd7c166d0-9efb-412b-bdbc-0fa80d587141'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B29," ", G29)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-plqz-kqp59634-1-2.eastus2.cloudapp.azure.com az account set --subscription '8a11c749-78a2-4ac0-9b0e-8dd5b010146a'</v>
       </c>
       <c r="I29" t="str">
         <f>'aks details'!E25</f>
-        <v>rg-aks-5</v>
+        <v>rg-aks-2</v>
       </c>
       <c r="J29" t="str">
         <f>'aks details'!F25</f>
-        <v>aks-5</v>
+        <v>aks-2</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="3"/>
-        <v>az aks get-credentials --resource-group rg-aks-5 --name aks-5  --overwrite</v>
+        <f t="shared" si="1"/>
+        <v>az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-2-3.japaneast.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-5 --name aks-5  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B29," ", K29)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-kqp59634-1-2.eastus2.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
       </c>
       <c r="M29" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-2-3.japaneast.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B29," ", M29)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-kqp59634-1-2.eastus2.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -1970,29 +1956,29 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-2-4.japaneast.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-plqz-kqp59634-2-0.japaneast.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F30" t="str">
         <f>'aks details'!C26</f>
-        <v>f674fa1e-9377-49a4-8ef7-a3049a97702e</v>
+        <v>4bdd6065-f417-4cb6-b489-7920684e7836</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription 'f674fa1e-9377-49a4-8ef7-a3049a97702e'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F30,"'")</f>
+        <v>az account set --subscription '4bdd6065-f417-4cb6-b489-7920684e7836'</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-2-4.japaneast.cloudapp.azure.com az account set --subscription 'f674fa1e-9377-49a4-8ef7-a3049a97702e'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B30," ", G30)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-plqz-kqp59634-2-0.japaneast.cloudapp.azure.com az account set --subscription '4bdd6065-f417-4cb6-b489-7920684e7836'</v>
       </c>
       <c r="I30" t="str">
         <f>'aks details'!E26</f>
@@ -2003,19 +1989,19 @@
         <v>aks-0</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-2-4.japaneast.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B30," ", K30)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-kqp59634-2-0.japaneast.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-0 --name aks-0  --overwrite</v>
       </c>
       <c r="M30" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-2-4.japaneast.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B30," ", M30)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-kqp59634-2-0.japaneast.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -2023,29 +2009,29 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-2-5.japaneast.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-plqz-kqp59634-2-1.japaneast.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F31" t="str">
         <f>'aks details'!C27</f>
-        <v>f674fa1e-9377-49a4-8ef7-a3049a97702e</v>
+        <v>4bdd6065-f417-4cb6-b489-7920684e7836</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription 'f674fa1e-9377-49a4-8ef7-a3049a97702e'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F31,"'")</f>
+        <v>az account set --subscription '4bdd6065-f417-4cb6-b489-7920684e7836'</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-2-5.japaneast.cloudapp.azure.com az account set --subscription 'f674fa1e-9377-49a4-8ef7-a3049a97702e'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B31," ", G31)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-plqz-kqp59634-2-1.japaneast.cloudapp.azure.com az account set --subscription '4bdd6065-f417-4cb6-b489-7920684e7836'</v>
       </c>
       <c r="I31" t="str">
         <f>'aks details'!E27</f>
@@ -2056,19 +2042,19 @@
         <v>aks-1</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-2-5.japaneast.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B31," ", K31)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-kqp59634-2-1.japaneast.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-1 --name aks-1  --overwrite</v>
       </c>
       <c r="M31" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-2-5.japaneast.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B31," ", M31)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-kqp59634-2-1.japaneast.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -2076,29 +2062,29 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-2-6.japaneast.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
+        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-plqz-kqp59634-2-2.japaneast.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
       </c>
       <c r="F32" t="str">
         <f>'aks details'!C28</f>
-        <v>f674fa1e-9377-49a4-8ef7-a3049a97702e</v>
+        <v>4bdd6065-f417-4cb6-b489-7920684e7836</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription 'f674fa1e-9377-49a4-8ef7-a3049a97702e'</v>
+        <f>_xlfn.CONCAT("az account set --subscription ", "'", F32,"'")</f>
+        <v>az account set --subscription '4bdd6065-f417-4cb6-b489-7920684e7836'</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-2-6.japaneast.cloudapp.azure.com az account set --subscription 'f674fa1e-9377-49a4-8ef7-a3049a97702e'</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@",B32," ", G32)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-plqz-kqp59634-2-2.japaneast.cloudapp.azure.com az account set --subscription '4bdd6065-f417-4cb6-b489-7920684e7836'</v>
       </c>
       <c r="I32" t="str">
         <f>'aks details'!E28</f>
@@ -2109,178 +2095,19 @@
         <v>aks-2</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-2-6.japaneast.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B32," ", K32)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-kqp59634-2-2.japaneast.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-2 --name aks-2  --overwrite</v>
       </c>
       <c r="M32" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-2-6.japaneast.cloudapp.azure.com kubectl get nodes -o wide</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>28</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-2-7.japaneast.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
-      </c>
-      <c r="F33" t="str">
-        <f>'aks details'!C29</f>
-        <v>f674fa1e-9377-49a4-8ef7-a3049a97702e</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription 'f674fa1e-9377-49a4-8ef7-a3049a97702e'</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-2-7.japaneast.cloudapp.azure.com az account set --subscription 'f674fa1e-9377-49a4-8ef7-a3049a97702e'</v>
-      </c>
-      <c r="I33" t="str">
-        <f>'aks details'!E29</f>
-        <v>rg-aks-3</v>
-      </c>
-      <c r="J33" t="str">
-        <f>'aks details'!F29</f>
-        <v>aks-3</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="3"/>
-        <v>az aks get-credentials --resource-group rg-aks-3 --name aks-3  --overwrite</v>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-2-7.japaneast.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-3 --name aks-3  --overwrite</v>
-      </c>
-      <c r="M33" t="s">
-        <v>80</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-2-7.japaneast.cloudapp.azure.com kubectl get nodes -o wide</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>29</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-2-8.japaneast.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
-      </c>
-      <c r="F34" t="str">
-        <f>'aks details'!C30</f>
-        <v>f674fa1e-9377-49a4-8ef7-a3049a97702e</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription 'f674fa1e-9377-49a4-8ef7-a3049a97702e'</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-2-8.japaneast.cloudapp.azure.com az account set --subscription 'f674fa1e-9377-49a4-8ef7-a3049a97702e'</v>
-      </c>
-      <c r="I34" t="str">
-        <f>'aks details'!E30</f>
-        <v>rg-aks-4</v>
-      </c>
-      <c r="J34" t="str">
-        <f>'aks details'!F30</f>
-        <v>aks-4</v>
-      </c>
-      <c r="K34" t="str">
-        <f t="shared" si="3"/>
-        <v>az aks get-credentials --resource-group rg-aks-4 --name aks-4  --overwrite</v>
-      </c>
-      <c r="L34" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-2-8.japaneast.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-4 --name aks-4  --overwrite</v>
-      </c>
-      <c r="M34" t="s">
-        <v>80</v>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-2-8.japaneast.cloudapp.azure.com kubectl get nodes -o wide</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>30</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>ssh -i  ssh-keys/terraform-azure.pem -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-2-9.japaneast.cloudapp.azure.com az login -u asreet-tech@atttrainings.com -p Azure@123456</v>
-      </c>
-      <c r="F35" t="str">
-        <f>'aks details'!C31</f>
-        <v>f674fa1e-9377-49a4-8ef7-a3049a97702e</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="1"/>
-        <v>az account set --subscription 'f674fa1e-9377-49a4-8ef7-a3049a97702e'</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="2"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no tuser@lnx-hpqzdp-2-9.japaneast.cloudapp.azure.com az account set --subscription 'f674fa1e-9377-49a4-8ef7-a3049a97702e'</v>
-      </c>
-      <c r="I35" t="str">
-        <f>'aks details'!E31</f>
-        <v>rg-aks-5</v>
-      </c>
-      <c r="J35" t="str">
-        <f>'aks details'!F31</f>
-        <v>aks-5</v>
-      </c>
-      <c r="K35" t="str">
-        <f t="shared" si="3"/>
-        <v>az aks get-credentials --resource-group rg-aks-5 --name aks-5  --overwrite</v>
-      </c>
-      <c r="L35" t="str">
-        <f t="shared" si="4"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-2-9.japaneast.cloudapp.azure.com az aks get-credentials --resource-group rg-aks-5 --name aks-5  --overwrite</v>
-      </c>
-      <c r="M35" t="s">
-        <v>80</v>
-      </c>
-      <c r="N35" t="str">
-        <f t="shared" si="5"/>
-        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-hpqzdp-2-9.japaneast.cloudapp.azure.com kubectl get nodes -o wide</v>
+        <f>_xlfn.CONCAT("ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@",B32," ", M32)</f>
+        <v>ssh -i ssh-keys/terraform-azure.pem  -o StrictHostKeyChecking=no  tuser@lnx-plqz-kqp59634-2-2.japaneast.cloudapp.azure.com kubectl get nodes -o wide</v>
       </c>
     </row>
   </sheetData>
@@ -2292,9 +2119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC415237-D4A0-4BEE-AD9F-80BA53C3AE05}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2311,19 +2136,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2331,19 +2156,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2351,19 +2176,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2371,19 +2196,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2391,19 +2216,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2411,19 +2236,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2431,19 +2256,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2451,19 +2276,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2471,19 +2296,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2491,19 +2316,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2511,19 +2336,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2531,19 +2356,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2551,19 +2376,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2571,19 +2396,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2591,19 +2416,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>71</v>
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2611,19 +2436,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2631,19 +2456,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2651,19 +2476,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2671,19 +2496,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2691,19 +2516,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2711,19 +2536,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2731,19 +2556,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2751,19 +2576,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2771,19 +2596,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2791,19 +2616,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2811,19 +2636,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2831,19 +2656,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2851,80 +2676,29 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" t="s">
-        <v>53</v>
-      </c>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" t="s">
-        <v>74</v>
-      </c>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" t="s">
-        <v>75</v>
-      </c>
+      <c r="C31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
